--- a/06-03-2023/data/output/xlsx/Causality for Category/16.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/16.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
@@ -199,7 +196,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -241,7 +238,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -283,7 +280,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -322,7 +319,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/16.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/16.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="131">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,12 +52,15 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_equals__1,num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
@@ -202,7 +205,13 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_equals__2</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_equals__1</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
@@ -564,28 +573,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.4136874361593463</c:v>
+                  <c:v>0.5097037793667007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3970944309927361</c:v>
+                  <c:v>0.5024213075060533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2880258899676376</c:v>
+                  <c:v>0.3009708737864077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2323232323232323</c:v>
+                  <c:v>0.2272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1809523809523809</c:v>
+                  <c:v>0.1714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.189873417721519</c:v>
+                  <c:v>0.1392405063291139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1923076923076923</c:v>
+                  <c:v>0.1153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.175</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.04545454545454546</c:v>
@@ -648,7 +657,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -712,10 +721,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$16</c:f>
+              <c:f>MultsDivs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -745,51 +754,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$16</c:f>
+              <c:f>MultsDivs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.2513368983957219</c:v>
+                  <c:v>0.2566844919786097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2676056338028169</c:v>
+                  <c:v>0.2746478873239437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2258064516129032</c:v>
+                  <c:v>0.2150537634408602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2191780821917808</c:v>
+                  <c:v>0.2054794520547945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2037037037037037</c:v>
+                  <c:v>0.1851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1351351351351351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2272727272727273</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.2727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +849,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -910,10 +913,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$15</c:f>
+              <c:f>Equations!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -940,48 +943,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$15</c:f>
+              <c:f>Equations!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4142427281845537</c:v>
+                  <c:v>0.5085255767301906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4167507568113017</c:v>
+                  <c:v>0.5116044399596368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3766233766233766</c:v>
+                  <c:v>0.4044526901669759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.313953488372093</c:v>
+                  <c:v>0.3313953488372093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2450980392156863</c:v>
+                  <c:v>0.2352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2132352941176471</c:v>
+                  <c:v>0.2058823529411765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2173913043478261</c:v>
+                  <c:v>0.1413043478260869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2592592592592592</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05882352941176471</c:v>
+                  <c:v>0.1142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1035,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1102,10 +1099,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$18</c:f>
+              <c:f>Decimals!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1141,57 +1138,51 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$18</c:f>
+              <c:f>Decimals!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.3247588424437299</c:v>
+                  <c:v>0.4180064308681672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2703252032520325</c:v>
+                  <c:v>0.3638211382113821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2383561643835616</c:v>
+                  <c:v>0.326027397260274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1739130434782609</c:v>
+                  <c:v>0.2094861660079052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1676646706586826</c:v>
+                  <c:v>0.2095808383233533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.126984126984127</c:v>
+                  <c:v>0.1587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07058823529411765</c:v>
+                  <c:v>0.09411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0975609756097561</c:v>
+                  <c:v>0.04878048780487805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09677419354838709</c:v>
+                  <c:v>0.06451612903225806</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1304347826086956</c:v>
+                  <c:v>0.04347826086956522</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.06666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +1239,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1312,10 +1303,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$12</c:f>
+              <c:f>Unknowns!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1327,45 +1318,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$12</c:f>
+              <c:f>Unknowns!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4138276553106213</c:v>
+                  <c:v>0.5080160320641283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4011713030746706</c:v>
+                  <c:v>0.5036603221083455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1684210526315789</c:v>
+                  <c:v>0.05263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07692307692307693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08695652173913043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07142857142857142</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.01923076923076923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1395,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1486,10 +1459,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1501,39 +1474,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3417085427135678</c:v>
+                  <c:v>0.3743718592964824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1847133757961783</c:v>
+                  <c:v>0.178343949044586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1866666666666667</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2093023255813954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1176470588235294</c:v>
+                  <c:v>0.1395348837209302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1551,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 16</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2156,14 +2117,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4136874361593463</v>
+        <v>0.5097037793667007</v>
       </c>
       <c r="E3" s="1">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.09074708565703438</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2177,19 +2140,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3970944309927361</v>
+        <v>0.5024213075060533</v>
       </c>
       <c r="E4" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>309</v>
@@ -2198,19 +2161,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2880258899676376</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -2219,19 +2182,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.2323232323232323</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2240,19 +2203,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1809523809523809</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E7" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2261,19 +2224,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.189873417721519</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="E8" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2282,19 +2245,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E9" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2303,19 +2266,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.175</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2327,16 +2290,16 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2348,16 +2311,16 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2369,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2390,16 +2353,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2411,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2432,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2453,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2474,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2495,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2516,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2537,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2555,19 +2518,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.3247588424437299</v>
+        <v>0.4180064308681672</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2576,19 +2539,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2703252032520325</v>
+        <v>0.3638211382113821</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2597,19 +2560,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.2383561643835616</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="E24" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2618,19 +2581,19 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.1739130434782609</v>
+        <v>0.2094861660079052</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2639,19 +2602,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.1676646706586826</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="E26" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2660,19 +2623,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.126984126984127</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E27" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2681,19 +2644,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.07058823529411765</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2705,16 +2668,16 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="E29" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2723,19 +2686,19 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0975609756097561</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2744,19 +2707,19 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E31" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2765,19 +2728,19 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.1304347826086956</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E32" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2786,19 +2749,19 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E33" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2807,19 +2770,19 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2831,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2852,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2873,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2894,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2915,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2936,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2957,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2978,16 +2941,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2999,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3020,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3041,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3062,16 +3025,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3083,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3104,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3125,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3146,16 +3109,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3167,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3185,21 +3148,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.4142427281845537</v>
+        <v>0.5085255767301906</v>
       </c>
       <c r="E52" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="1">
-        <v>0.4167507568113017</v>
+        <v>0.5109146944174462</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3208,21 +3171,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.4167507568113017</v>
+        <v>0.5116044399596368</v>
       </c>
       <c r="E53" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G53" s="1">
-        <v>0.4167507568113017</v>
+        <v>0.5124894627781723</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3231,19 +3194,19 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.3766233766233766</v>
+        <v>0.4044526901669759</v>
       </c>
       <c r="E54" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3252,19 +3215,19 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.313953488372093</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="E55" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3273,19 +3236,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.2450980392156863</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E56" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3294,19 +3257,19 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.2132352941176471</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="E57" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3315,19 +3278,19 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.2173913043478261</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="E58" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3336,19 +3299,19 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.2592592592592592</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E59" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3357,19 +3320,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E60" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3378,19 +3341,19 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3402,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3423,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3444,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3465,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3483,19 +3446,19 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.2513368983957219</v>
+        <v>0.2566844919786097</v>
       </c>
       <c r="E66" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3504,19 +3467,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.2676056338028169</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="E67" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3525,19 +3488,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.2258064516129032</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="E68" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3546,19 +3509,19 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.2191780821917808</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="E69" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3567,19 +3530,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.2037037037037037</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E70" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3591,16 +3554,16 @@
         <v>0.1351351351351351</v>
       </c>
       <c r="E71" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3609,19 +3572,19 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.2272727272727273</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E72" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3633,16 +3596,16 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="E73" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3651,19 +3614,19 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E74" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3675,16 +3638,16 @@
         <v>0.125</v>
       </c>
       <c r="E75" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3693,19 +3656,19 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3717,16 +3680,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3738,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3759,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3777,19 +3740,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="E80" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3798,19 +3761,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.4011713030746706</v>
+        <v>0.5036603221083455</v>
       </c>
       <c r="E81" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3819,19 +3782,19 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.1684210526315789</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E82" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3840,19 +3803,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.07692307692307693</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E83" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3861,19 +3824,19 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3882,19 +3845,19 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3903,19 +3866,19 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3927,16 +3890,16 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3948,16 +3911,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3969,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3990,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4011,16 +3974,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4032,16 +3995,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4050,19 +4013,19 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.3417085427135678</v>
+        <v>0.3743718592964824</v>
       </c>
       <c r="E93" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4071,19 +4034,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1847133757961783</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="E94" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4092,19 +4055,19 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.1866666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="E95" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4113,19 +4076,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.2093023255813954</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="E96" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4134,19 +4097,19 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4155,19 +4118,19 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4179,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4200,16 +4163,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4221,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4242,16 +4205,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4263,16 +4226,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4284,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4305,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4326,16 +4289,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4347,11 +4310,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4372,7 +4335,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4395,25 +4358,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4427,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4136874361593463</v>
+        <v>0.5097037793667007</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0001402191512749895</v>
+        <v>0.001687747302572484</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4470,13 +4433,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.3970944309927361</v>
+        <v>0.5024213075060533</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.01673322431788521</v>
+        <v>-0.00559472455807497</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4504,7 +4467,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>309</v>
@@ -4513,13 +4476,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2880258899676376</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="E6" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.1258017653429837</v>
+        <v>-0.2070451582777205</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4547,7 +4510,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>198</v>
@@ -4556,13 +4519,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2323232323232323</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.1815044229873889</v>
+        <v>-0.280743304791401</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4590,7 +4553,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -4599,13 +4562,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1809523809523809</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E8" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.2328752743582403</v>
+        <v>-0.3365874606355568</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4633,7 +4596,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -4642,13 +4605,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.189873417721519</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="E9" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.2239542375891023</v>
+        <v>-0.3687755257350144</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4676,7 +4639,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -4685,13 +4648,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E10" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.2215199630029289</v>
+        <v>-0.3926314166795128</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4719,7 +4682,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -4728,13 +4691,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.175</v>
+        <v>0.05</v>
       </c>
       <c r="E11" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.2388276553106213</v>
+        <v>-0.4580160320641283</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4762,7 +4725,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
@@ -4774,10 +4737,10 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E12" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.3683731098560758</v>
+        <v>-0.4625614866095828</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -4805,7 +4768,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>18</v>
@@ -4817,10 +4780,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="E13" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.3582720997550657</v>
+        <v>-0.4524604765085727</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -4853,542 +4816,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="3">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.2513368983957219</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.1624907569148993</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.2676056338028169</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.1462220215078044</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.188021203697718</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.2191780821917808</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.1946495731188405</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="3">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.2101239516069176</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="3">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.2786925201754861</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="3">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.186554928037894</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.1785335376635624</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.05019129167425762</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.2888276553106213</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.2138276553106213</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -5401,7 +4828,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5424,45 +4851,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3">
-        <v>997</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4142427281845537</v>
+        <v>0.2566844919786097</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0004150728739323872</v>
+        <v>-0.2513315400855186</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5490,22 +4917,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3">
-        <v>991</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.4167507568113017</v>
+        <v>0.2746478873239437</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002923101500680425</v>
+        <v>-0.2333681447401846</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5533,22 +4960,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3">
-        <v>539</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3766233766233766</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="E6" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.03720427868724463</v>
+        <v>-0.292962268623268</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5576,22 +5003,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.313953488372093</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.09987416693852824</v>
+        <v>-0.3025365800093338</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5619,22 +5046,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2450980392156863</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E8" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.168729616094935</v>
+        <v>-0.3228308468789431</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5662,22 +5089,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2132352941176471</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="E9" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.2005923611929742</v>
+        <v>-0.3728808969289931</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5705,22 +5132,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2173913043478261</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.1964363509627952</v>
+        <v>-0.3261978502459464</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5748,22 +5175,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2592592592592592</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E11" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.154568396051362</v>
+        <v>-0.2727219144170694</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5791,22 +5218,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2857142857142857</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E12" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.1281133695963356</v>
+        <v>-0.2352887593368556</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5834,22 +5261,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.05882352941176471</v>
+        <v>0.125</v>
       </c>
       <c r="E13" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.3550041258988565</v>
+        <v>-0.3830160320641283</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5881,995 +5308,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3">
-        <v>622</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.3247588424437299</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.08906881286689139</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3">
-        <v>492</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.2703252032520325</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.1435024520585887</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3">
-        <v>365</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.2383561643835616</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.1754714909270596</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3">
-        <v>253</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.2399146118323604</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3">
-        <v>167</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1676646706586826</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.2461629846519386</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3">
-        <v>126</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.2868435283264943</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.07058823529411765</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.3432394200165036</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.3369045783875443</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.3162666797008652</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.3170534617622341</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.2833928727019256</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-0.2138276553106213</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-0.3138276553106213</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="3">
-        <v>998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="3">
-        <v>683</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.4011713030746706</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.01265635223595069</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3">
-        <v>95</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1684210526315789</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.2454066026790423</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="3">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.3369045783875443</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.3268711335714908</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.3423990838820499</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="3">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.3229185644015303</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6903,30 +5344,1294 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="3">
+        <v>997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5085255767301906</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0005095446660623448</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3">
+        <v>991</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5116044399596368</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.003588407895508516</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4044526901669759</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.1035633418971524</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.3313953488372093</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.176620683226919</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.2727219144170694</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.3021336791229518</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1413043478260869</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.3667116842380413</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.3969049209530172</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.393730317778414</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.4180064308681672</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.09000960119596108</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.3638211382113821</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.1441948938527461</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.326027397260274</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.1819886348038543</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2094861660079052</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.2985298660562231</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2095808383233533</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.298435193740775</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.3492858733339695</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.4138983850053047</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.4310929551410513</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.4592355442592502</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.4434999030318702</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.4645377711945631</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.4413493653974616</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3">
+        <v>998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5036603221083455</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.004355709955782716</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.4553844531167598</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5080160320641283</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.488785262833359</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6935,13 +6640,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3417085427135678</v>
+        <v>0.3743718592964824</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.07211911259705345</v>
+        <v>-0.1336441727676458</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6969,7 +6674,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6978,13 +6683,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1847133757961783</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.2291142795144429</v>
+        <v>-0.3296720830195423</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7012,7 +6717,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -7021,13 +6726,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1866666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.2271609886439546</v>
+        <v>-0.3880160320641283</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7055,7 +6760,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -7064,13 +6769,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2093023255813954</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4138276553106213</v>
+        <v>0.5080160320641283</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.2045253297292259</v>
+        <v>-0.368481148343198</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7093,92 +6798,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.2938276553106213</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.4138276553106213</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.2961805964870918</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
         <v>0</v>
       </c>
     </row>
